--- a/medicine/Mort/Heroes'_Acre_(Afrique_du_Sud)/Heroes'_Acre_(Afrique_du_Sud).xlsx
+++ b/medicine/Mort/Heroes'_Acre_(Afrique_du_Sud)/Heroes'_Acre_(Afrique_du_Sud).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heroes%27_Acre_(Afrique_du_Sud)</t>
+          <t>Heroes'_Acre_(Afrique_du_Sud)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heroes' Acre (le carré des héros en français ou die Helde Akker en afrikaans) est une section centrale du cimetière historique de Pretoria en Afrique du Sud. Situé sur la section ouest de l'ancienne church street, à l'angle de D.F. Malan Drive, ce cimetière fut créé en 1867. Il accueille au sein de ce carré la dépouille de plusieurs personnalités publiques historiques liées à l'histoire du Transvaal, de la guerre des Boers ou de l'Afrique du Sud.
-Heroes' Acre est un site inscrit au patrimoine national d'Afrique du Sud[1].
+Heroes' Acre est un site inscrit au patrimoine national d'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heroes%27_Acre_(Afrique_du_Sud)</t>
+          <t>Heroes'_Acre_(Afrique_du_Sud)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités historiques enterrées dans le carré</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Andries Pretorius – chef voortrekker dont les restes furent transférées en 1891 dans le carré
 Willem Cornelis Janse van Rensburg – 2nd Président de la république sud-africaine du Transvaal
